--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CD/15/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CD/15/seed3/result_data_KNN.xlsx
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.552000000000001</v>
+        <v>-7.632</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -570,7 +570,7 @@
         <v>2.91</v>
       </c>
       <c r="C8" t="n">
-        <v>-13.176</v>
+        <v>-12.679</v>
       </c>
       <c r="D8" t="n">
         <v>-8.029999999999999</v>
@@ -604,7 +604,7 @@
         <v>6.17</v>
       </c>
       <c r="C10" t="n">
-        <v>-13.426</v>
+        <v>-12.937</v>
       </c>
       <c r="D10" t="n">
         <v>-8.85</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.184</v>
+        <v>-11.207</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-7.953999999999999</v>
+        <v>-8.378000000000002</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -740,10 +740,10 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-14.106</v>
+        <v>-14.011</v>
       </c>
       <c r="D18" t="n">
-        <v>-7.984</v>
+        <v>-8.456</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.15</v>
+        <v>-7.517000000000001</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.498</v>
+        <v>-7.292</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.326000000000001</v>
+        <v>-7.141</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.199999999999999</v>
+        <v>-7.938</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.628</v>
+        <v>-13.243</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1117,7 +1117,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.81</v>
+        <v>-7.641</v>
       </c>
       <c r="E40" t="n">
         <v>16.16</v>
@@ -1287,7 +1287,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.366</v>
+        <v>-8.008000000000001</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.916</v>
+        <v>-13.958</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1590,10 +1590,10 @@
         <v>4.88</v>
       </c>
       <c r="C68" t="n">
-        <v>-11.14</v>
+        <v>-11.167</v>
       </c>
       <c r="D68" t="n">
-        <v>-7.210000000000001</v>
+        <v>-6.879</v>
       </c>
       <c r="E68" t="n">
         <v>17.66</v>
@@ -1729,7 +1729,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.122</v>
+        <v>-7.312</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1743,7 +1743,7 @@
         <v>10.09</v>
       </c>
       <c r="C77" t="n">
-        <v>-12.75</v>
+        <v>-13.117</v>
       </c>
       <c r="D77" t="n">
         <v>-6.2</v>
@@ -1760,7 +1760,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-13.844</v>
+        <v>-13.214</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1811,7 +1811,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-12.29</v>
+        <v>-13.094</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1828,7 +1828,7 @@
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-12.198</v>
+        <v>-11.737</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
@@ -1916,7 +1916,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-8.617999999999999</v>
+        <v>-8.339</v>
       </c>
       <c r="E87" t="n">
         <v>16.53</v>
@@ -1933,7 +1933,7 @@
         <v>-14.65</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.856</v>
+        <v>-8.177000000000001</v>
       </c>
       <c r="E88" t="n">
         <v>17.32</v>
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.139999999999999</v>
+        <v>-7.267</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.425999999999998</v>
+        <v>-8.242000000000001</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2154,7 +2154,7 @@
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.93</v>
+        <v>-7.885999999999998</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.925999999999999</v>
+        <v>-8.036</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
